--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>USB B</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/WSL2010R1000FEA18/WSLF-.10CT-ND/713471</t>
+  </si>
+  <si>
+    <t>Rsense</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/WSL2816R0400FEH/WSLK-.04CT-ND/1880752</t>
+  </si>
+  <si>
+    <t>Rsesnse_motor</t>
   </si>
 </sst>
 </file>
@@ -390,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +454,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Rsesnse_motor</t>
+  </si>
+  <si>
+    <t>Molex 4 pin spring terminal</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0397000704/WM10639-ND/5011486</t>
   </si>
 </sst>
 </file>
@@ -402,13 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -474,6 +483,17 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/0397000704/WM10639-ND/5011486</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1819082/277-10227-ND/5253182</t>
+  </si>
+  <si>
+    <t>Phoenix Contact 2 pin spring terminal high power</t>
   </si>
 </sst>
 </file>
@@ -408,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,13 +498,25 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>Phoenix Contact 2 pin spring terminal high power</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1751477/277-8665-ND/2527284</t>
+  </si>
+  <si>
+    <t>Phoenix Contact 2 pin spring terminal low power (MCU, sensors)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1985030/277-9143-ND/2513986</t>
+  </si>
+  <si>
+    <t>Phoenix Contact 9 pin spring terminal sensors</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1985221/277-1625-ND/568662</t>
+  </si>
+  <si>
+    <t>Phoenix Contact 5 pin spring terminal encoder</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=TDK%20lambda%20ls50-12</t>
+  </si>
+  <si>
+    <t>PSU for sensors, power side (12V, 4.2A)</t>
   </si>
 </sst>
 </file>
@@ -414,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +500,7 @@
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -511,12 +535,58 @@
       </c>
       <c r="C8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -587,6 +587,7 @@
     <hyperlink ref="C7" r:id="rId2"/>
     <hyperlink ref="C9" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>PSU for sensors, power side (12V, 4.2A)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/3214W-1-103E/3214W-103ECT-ND/248449</t>
+  </si>
+  <si>
+    <t>Trimmer for REF02</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +585,17 @@
       </c>
       <c r="C12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Trimmer for REF02</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1985292/277-1632-ND/568669</t>
+  </si>
+  <si>
+    <t>ADC connector</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +567,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -596,6 +602,17 @@
       </c>
       <c r="C13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -605,6 +622,7 @@
     <hyperlink ref="C9" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>http://www.digikey.com/product-detail/en/ECS-.327-9-34B-C-TR/XC1949CT-ND/3927387</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>ADC connector</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/amphenol-fci/75869-132LF/609-3530-ND/1524248</t>
+  </si>
+  <si>
+    <t>Stepper Driver Connector</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/amphenol-fci/71600-008LF/609-3568-ND/1523262</t>
+  </si>
+  <si>
+    <t>Stepper Driver Cable Connector</t>
   </si>
 </sst>
 </file>
@@ -450,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,7 +557,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -554,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -613,6 +625,28 @@
       </c>
       <c r="C14" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -623,6 +657,7 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
